--- a/output_data/charts/shares-Licking.xlsx
+++ b/output_data/charts/shares-Licking.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.823041912454836</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.757488029310591</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.676622834259035</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.675476544665639</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.128636293348237</c:v>
+                  <c:v>0.01018955458092077</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.007995778235077203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02379962296511968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02855041738622538</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02662402695303488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +240,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +284,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.51178588206531</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.53475766332527</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.6008805796467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.93857574693836</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.19684997415852</c:v>
+                  <c:v>27.6713538456124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.74642191074955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.17242814361045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.16170434148483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.94658375114857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +311,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +355,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.736430959199036</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.301728690471526</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.900160637560383</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.748266592004478</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.930553226402195</c:v>
+                  <c:v>2.978737834442618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.950442168743482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.823228415847215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.496125296683428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.915139242377787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +382,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +426,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5451395917557779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5085314951608215</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4507050870904024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5139081216640238</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6123535199071919</c:v>
+                  <c:v>9.355682397113108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.79749892864825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.28738025500493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9804225401704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.63141080809646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +453,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +497,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.40520344986297</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.991524474158503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.231689174896466</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.146395804617095</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.923266670170509</c:v>
+                  <c:v>3.736159185365762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.716437678391787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.163860295314554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.137830710645614</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.285970558079057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +524,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +568,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.75049249250386</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.17757025202257</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.3186172395849</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.02936622877764</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.19331877356987</c:v>
+                  <c:v>1.475782895043396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.509602930782569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.350627714219843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14337765496228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.209293155788574</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +595,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +639,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.475782895043396</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.509602930782569</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.350627714219843</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.14337765496228</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.209293155788574</c:v>
+                  <c:v>12.75049249250386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.17757025202257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.3186172395849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.02936622877764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.19331877356987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +666,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +710,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.736159185365762</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.716437678391787</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.163860295314554</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.137830710645614</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.285970558079057</c:v>
+                  <c:v>10.40520344986297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.991524474158503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.231689174896466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.146395804617095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.923266670170509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +737,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +781,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.355682397113108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.79749892864825</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.28738025500493</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.9804225401704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.63141080809646</c:v>
+                  <c:v>0.5451395917557779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5085314951608215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4507050870904024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5139081216640238</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6123535199071919</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +808,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +852,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.978737834442618</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.950442168743482</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.823228415847215</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.496125296683428</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.915139242377787</c:v>
+                  <c:v>4.736430959199036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.301728690471526</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.900160637560383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.748266592004478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.930553226402195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +879,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +923,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27.6713538456124</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.74642191074955</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.17242814361045</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.16170434148483</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.94658375114857</c:v>
+                  <c:v>21.51178588206531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.53475766332527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.6008805796467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.93857574693836</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.19684997415852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +950,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,19 +994,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.01018955458092077</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.007995778235077203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02379962296511968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02855041738622538</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02662402695303488</c:v>
+                  <c:v>4.823041912454836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.757488029310591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.676622834259035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.675476544665639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.128636293348237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,7 +1051,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1123,15 +1122,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1445,19 +1444,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1506,40 +1493,40 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0.01018955458092077</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27.6713538456124</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.978737834442618</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9.355682397113108</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3.736159185365762</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.475782895043396</v>
+      </c>
+      <c r="H2" s="1">
+        <v>12.75049249250386</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10.40520344986297</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5451395917557779</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.736430959199036</v>
+      </c>
+      <c r="L2" s="1">
+        <v>21.51178588206531</v>
+      </c>
+      <c r="M2" s="1">
         <v>4.823041912454836</v>
-      </c>
-      <c r="C2" s="1">
-        <v>21.51178588206531</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.736430959199036</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.5451395917557779</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10.40520344986297</v>
-      </c>
-      <c r="G2" s="1">
-        <v>12.75049249250386</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.475782895043396</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.736159185365762</v>
-      </c>
-      <c r="J2" s="1">
-        <v>9.355682397113108</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.978737834442618</v>
-      </c>
-      <c r="L2" s="1">
-        <v>27.6713538456124</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.01018955458092077</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1547,40 +1534,40 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1">
+        <v>0.007995778235077203</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28.74642191074955</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.950442168743482</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.79749892864825</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3.716437678391787</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.509602930782569</v>
+      </c>
+      <c r="H3" s="1">
+        <v>12.17757025202257</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9.991524474158503</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.5085314951608215</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4.301728690471526</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20.53475766332527</v>
+      </c>
+      <c r="M3" s="1">
         <v>4.757488029310591</v>
-      </c>
-      <c r="C3" s="1">
-        <v>20.53475766332527</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.301728690471526</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.5085314951608215</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.991524474158503</v>
-      </c>
-      <c r="G3" s="1">
-        <v>12.17757025202257</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.509602930782569</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3.716437678391787</v>
-      </c>
-      <c r="J3" s="1">
-        <v>10.79749892864825</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.950442168743482</v>
-      </c>
-      <c r="L3" s="1">
-        <v>28.74642191074955</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.007995778235077203</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1588,40 +1575,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.02379962296511968</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36.17242814361045</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.823228415847215</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10.28738025500493</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.163860295314554</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.350627714219843</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10.3186172395849</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.231689174896466</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.4507050870904024</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3.900160637560383</v>
+      </c>
+      <c r="L4" s="1">
+        <v>18.6008805796467</v>
+      </c>
+      <c r="M4" s="1">
         <v>4.676622834259035</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18.6008805796467</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.900160637560383</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.4507050870904024</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.231689174896466</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10.3186172395849</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.350627714219843</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3.163860295314554</v>
-      </c>
-      <c r="J4" s="1">
-        <v>10.28738025500493</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.823228415847215</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36.17242814361045</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.02379962296511968</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1629,40 +1616,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.02855041738622538</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39.16170434148483</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.496125296683428</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9.9804225401704</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.137830710645614</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.14337765496228</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10.02936622877764</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.146395804617095</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.5139081216640238</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.748266592004478</v>
+      </c>
+      <c r="L5" s="1">
+        <v>16.93857574693836</v>
+      </c>
+      <c r="M5" s="1">
         <v>4.675476544665639</v>
-      </c>
-      <c r="C5" s="1">
-        <v>16.93857574693836</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.748266592004478</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.5139081216640238</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.146395804617095</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10.02936622877764</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.14337765496228</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.137830710645614</v>
-      </c>
-      <c r="J5" s="1">
-        <v>9.9804225401704</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.496125296683428</v>
-      </c>
-      <c r="L5" s="1">
-        <v>39.16170434148483</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.02855041738622538</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1670,40 +1657,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.02662402695303488</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32.94658375114857</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.915139242377787</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10.63141080809646</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.285970558079057</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.209293155788574</v>
+      </c>
+      <c r="H6" s="1">
+        <v>11.19331877356987</v>
+      </c>
+      <c r="I6" s="1">
+        <v>8.923266670170509</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.6123535199071919</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3.930553226402195</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.19684997415852</v>
+      </c>
+      <c r="M6" s="1">
         <v>5.128636293348237</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.19684997415852</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.930553226402195</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.6123535199071919</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8.923266670170509</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11.19331877356987</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.209293155788574</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.285970558079057</v>
-      </c>
-      <c r="J6" s="1">
-        <v>10.63141080809646</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.915139242377787</v>
-      </c>
-      <c r="L6" s="1">
-        <v>32.94658375114857</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.02662402695303488</v>
       </c>
     </row>
   </sheetData>
